--- a/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
+++ b/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BECF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\BECF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_AFDF61388B09D2D75D5C4E877F1E559E9E12E87F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33BD85A7-D778-4A5C-9261-C6C0E353FAC4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,10 +24,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EIA 860 &amp; 923'!$A$2:$L$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -381,7 +388,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0%"/>
@@ -661,6 +668,10 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -682,16 +693,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -968,10 +975,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25:A27"/>
     </sheetView>
   </sheetViews>
@@ -1084,17 +1091,17 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="25" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="25" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="25" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1158,7 +1165,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1166,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1180,17 +1187,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1199,17 +1206,17 @@
       <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="26" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1241,17 +1248,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -1399,17 +1406,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
@@ -1760,17 +1767,17 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2121,17 +2128,17 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -2482,17 +2489,17 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2510,11 +2517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,17 +2531,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -2566,17 +2573,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
@@ -2724,17 +2731,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -3085,17 +3092,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
@@ -3446,17 +3453,17 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
@@ -3807,17 +3814,17 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3833,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L777"/>
   <sheetViews>
     <sheetView topLeftCell="A313" workbookViewId="0">
@@ -3852,22 +3859,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -24868,13 +24875,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24883,7 +24892,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>110</v>
       </c>
       <c r="B1">
@@ -27176,7 +27185,7 @@
         <v>0.68</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="3"/>
+        <f>$B17</f>
         <v>0.68</v>
       </c>
       <c r="D17" s="8">
@@ -27318,13 +27327,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -27333,7 +27344,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>110</v>
       </c>
       <c r="B1">
@@ -29752,14 +29763,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29769,7 +29780,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>110</v>
       </c>
       <c r="B1">
@@ -32438,6 +32449,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -32446,23 +32466,40 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13F32416-01C0-43F2-862E-0C17EC6D7093}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13F32416-01C0-43F2-862E-0C17EC6D7093}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14307A51-5F6D-4281-A9FE-95AA108E69C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4279461A-02B3-4890-B089-1CF95D38E642}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4279461A-02B3-4890-B089-1CF95D38E642}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14307A51-5F6D-4281-A9FE-95AA108E69C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>